--- a/PerformanceCalculator.xlsx
+++ b/PerformanceCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au593144_uni_au_dk/Documents/UNI/6. semester/MAL/MALProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83360D8C-0F07-4CDD-B53A-5415C96C964E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{83360D8C-0F07-4CDD-B53A-5415C96C964E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45414FDE-0410-4E8E-AC0A-50E355394D0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{3364AB7D-EC95-42F4-AF22-F063DBBC562C}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,8 +607,8 @@
         <v>8</v>
       </c>
       <c r="F8" s="10">
-        <f>2*((F7*F6)/F7+F6)</f>
-        <v>3.3017456359102244</v>
+        <f>2*((F7*F6)/(F7+F6))</f>
+        <v>0.81226993865030672</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
